--- a/Template/Template_Criminal_by.xlsx
+++ b/Template/Template_Criminal_by.xlsx
@@ -46,7 +46,7 @@
     <t xml:space="preserve">ชื่อบิดา-มารดา</t>
   </si>
   <si>
-    <t xml:space="preserve">ที่อยู่ปัจจุบันและภูมิลำเนา</t>
+    <t xml:space="preserve">ที่อยู่ปัจจุบัน</t>
   </si>
 </sst>
 </file>
@@ -260,17 +260,17 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="49.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="49.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.3"/>
   </cols>
   <sheetData>

--- a/Template/Template_Criminal_by.xlsx
+++ b/Template/Template_Criminal_by.xlsx
@@ -108,20 +108,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF200"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFFBCC"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF9AE"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC2E0AE"/>
+        <bgColor rgb="FFBCE4E5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF89C765"/>
-        <bgColor rgb="FF969696"/>
+        <fgColor rgb="FFBCE4E5"/>
+        <bgColor rgb="FFC2E0AE"/>
       </patternFill>
     </fill>
   </fills>
@@ -168,15 +168,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -196,7 +196,7 @@
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFF200"/>
+      <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
@@ -205,16 +205,16 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFC2E0AE"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFFFFBCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFBCE4E5"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -226,14 +226,14 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFF9AE"/>
+      <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF89C765"/>
+      <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -260,7 +260,7 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -289,44 +289,44 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">

--- a/Template/Template_Criminal_by.xlsx
+++ b/Template/Template_Criminal_by.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">รายชื่อผู้ตรวจสอบประวัติอาชญากรรม</t>
   </si>
@@ -46,7 +46,10 @@
     <t xml:space="preserve">ชื่อบิดา-มารดา</t>
   </si>
   <si>
-    <t xml:space="preserve">ที่อยู่ปัจจุบัน</t>
+    <t xml:space="preserve">ที่อยู่ตามภูมิลำเนา</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ผลการตรวจสอบ</t>
   </si>
 </sst>
 </file>
@@ -260,7 +263,7 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -271,7 +274,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="49.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.3"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -328,7 +332,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -346,6 +350,9 @@
       </c>
       <c r="F5" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
